--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220421_110254.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220421_110254.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="268">
   <si>
     <t>사이트</t>
   </si>
@@ -782,6 +782,9 @@
   </si>
   <si>
     <t>FNC</t>
+  </si>
+  <si>
+    <t>마크툽컴퍼니</t>
   </si>
   <si>
     <t>플렉스엠</t>
@@ -2913,6 +2916,12 @@
       <c r="F67" t="s">
         <v>208</v>
       </c>
+      <c r="G67" t="s">
+        <v>256</v>
+      </c>
+      <c r="H67" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
@@ -2934,7 +2943,7 @@
         <v>76</v>
       </c>
       <c r="G68" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H68" t="s">
         <v>239</v>
@@ -3115,6 +3124,12 @@
       <c r="F75" t="s">
         <v>83</v>
       </c>
+      <c r="G75" t="s">
+        <v>241</v>
+      </c>
+      <c r="H75" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
@@ -3136,7 +3151,7 @@
         <v>84</v>
       </c>
       <c r="G76" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H76" t="s">
         <v>239</v>
@@ -3162,7 +3177,7 @@
         <v>214</v>
       </c>
       <c r="G77" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H77" t="s">
         <v>239</v>
@@ -3240,7 +3255,7 @@
         <v>217</v>
       </c>
       <c r="G80" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H80" t="s">
         <v>239</v>
@@ -3343,6 +3358,12 @@
       <c r="F84" t="s">
         <v>220</v>
       </c>
+      <c r="G84" t="s">
+        <v>256</v>
+      </c>
+      <c r="H84" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
@@ -3364,7 +3385,7 @@
         <v>93</v>
       </c>
       <c r="G85" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H85" t="s">
         <v>239</v>
@@ -3442,10 +3463,10 @@
         <v>96</v>
       </c>
       <c r="G88" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H88" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3468,7 +3489,7 @@
         <v>97</v>
       </c>
       <c r="G89" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H89" t="s">
         <v>239</v>
@@ -3494,7 +3515,7 @@
         <v>222</v>
       </c>
       <c r="G90" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H90" t="s">
         <v>239</v>
@@ -3598,7 +3619,7 @@
         <v>102</v>
       </c>
       <c r="G94" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H94" t="s">
         <v>239</v>
@@ -3650,7 +3671,7 @@
         <v>226</v>
       </c>
       <c r="G96" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H96" t="s">
         <v>239</v>
@@ -3676,7 +3697,7 @@
         <v>227</v>
       </c>
       <c r="G97" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H97" t="s">
         <v>239</v>
@@ -3702,7 +3723,7 @@
         <v>106</v>
       </c>
       <c r="G98" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H98" t="s">
         <v>239</v>
@@ -3754,7 +3775,7 @@
         <v>108</v>
       </c>
       <c r="G100" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H100" t="s">
         <v>239</v>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220421_110254.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220421_110254.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>genie</t>
+    <t>Genie</t>
   </si>
   <si>
     <t>2022-04-21</t>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220421_110254.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220421_110254.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="267">
   <si>
     <t>사이트</t>
   </si>
@@ -764,9 +764,6 @@
   </si>
   <si>
     <t>레시피뮤직</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>YUE HUA</t>
@@ -2319,7 +2316,7 @@
         <v>52</v>
       </c>
       <c r="G44" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="H44" t="s">
         <v>239</v>
@@ -2345,7 +2342,7 @@
         <v>196</v>
       </c>
       <c r="G45" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="H45" t="s">
         <v>239</v>
@@ -2475,7 +2472,7 @@
         <v>199</v>
       </c>
       <c r="G50" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H50" t="s">
         <v>239</v>
@@ -2579,10 +2576,10 @@
         <v>201</v>
       </c>
       <c r="G54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2605,7 +2602,7 @@
         <v>202</v>
       </c>
       <c r="G55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H55" t="s">
         <v>239</v>
@@ -2683,7 +2680,7 @@
         <v>205</v>
       </c>
       <c r="G58" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="H58" t="s">
         <v>239</v>
@@ -2709,10 +2706,10 @@
         <v>67</v>
       </c>
       <c r="G59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2735,7 +2732,7 @@
         <v>68</v>
       </c>
       <c r="G60" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H60" t="s">
         <v>239</v>
@@ -2761,7 +2758,7 @@
         <v>69</v>
       </c>
       <c r="G61" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H61" t="s">
         <v>239</v>
@@ -2917,7 +2914,7 @@
         <v>208</v>
       </c>
       <c r="G67" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H67" t="s">
         <v>239</v>
@@ -2943,7 +2940,7 @@
         <v>76</v>
       </c>
       <c r="G68" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H68" t="s">
         <v>239</v>
@@ -3073,10 +3070,10 @@
         <v>212</v>
       </c>
       <c r="G73" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H73" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3151,7 +3148,7 @@
         <v>84</v>
       </c>
       <c r="G76" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H76" t="s">
         <v>239</v>
@@ -3177,7 +3174,7 @@
         <v>214</v>
       </c>
       <c r="G77" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H77" t="s">
         <v>239</v>
@@ -3255,7 +3252,7 @@
         <v>217</v>
       </c>
       <c r="G80" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H80" t="s">
         <v>239</v>
@@ -3281,7 +3278,7 @@
         <v>192</v>
       </c>
       <c r="G81" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="H81" t="s">
         <v>239</v>
@@ -3307,10 +3304,10 @@
         <v>218</v>
       </c>
       <c r="G82" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H82" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3359,7 +3356,7 @@
         <v>220</v>
       </c>
       <c r="G84" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H84" t="s">
         <v>239</v>
@@ -3385,7 +3382,7 @@
         <v>93</v>
       </c>
       <c r="G85" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H85" t="s">
         <v>239</v>
@@ -3463,10 +3460,10 @@
         <v>96</v>
       </c>
       <c r="G88" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H88" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3489,7 +3486,7 @@
         <v>97</v>
       </c>
       <c r="G89" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H89" t="s">
         <v>239</v>
@@ -3515,7 +3512,7 @@
         <v>222</v>
       </c>
       <c r="G90" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H90" t="s">
         <v>239</v>
@@ -3619,7 +3616,7 @@
         <v>102</v>
       </c>
       <c r="G94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H94" t="s">
         <v>239</v>
@@ -3671,7 +3668,7 @@
         <v>226</v>
       </c>
       <c r="G96" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H96" t="s">
         <v>239</v>
@@ -3697,7 +3694,7 @@
         <v>227</v>
       </c>
       <c r="G97" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H97" t="s">
         <v>239</v>
@@ -3723,7 +3720,7 @@
         <v>106</v>
       </c>
       <c r="G98" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H98" t="s">
         <v>239</v>
@@ -3749,7 +3746,7 @@
         <v>228</v>
       </c>
       <c r="G99" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H99" t="s">
         <v>239</v>
@@ -3775,7 +3772,7 @@
         <v>108</v>
       </c>
       <c r="G100" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H100" t="s">
         <v>239</v>
